--- a/OnBoard/output/trust/bio/Bio_Trust_38.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_38.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F2">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F3">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F4">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F5">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F6">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F7">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F10">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F11">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F12">
@@ -947,19 +947,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="I12">
-        <v>67</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L12">
@@ -969,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -989,7 +984,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F13">
@@ -999,14 +994,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="I13">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L13">
@@ -1016,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1036,7 +1031,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F14">
@@ -1046,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1063,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1083,7 +1078,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F15">
@@ -1093,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1110,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1130,7 +1125,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F16">
@@ -1140,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1157,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1177,7 +1172,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F17">
@@ -1187,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1204,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1224,7 +1219,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F18">
@@ -1234,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1251,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1271,7 +1266,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F19">
@@ -1281,19 +1276,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="I19">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L19">
@@ -1303,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1323,7 +1313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F20">
@@ -1333,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="I20">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1345,7 +1335,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L20">
@@ -1355,7 +1345,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1375,7 +1365,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F21">
@@ -1385,34 +1375,29 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="I21">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L21">
         <v>0</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>deforme coda w inferred</t>
-        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1432,7 +1417,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F22">
@@ -1442,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="I22">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1454,7 +1439,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L22">
@@ -1464,7 +1449,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1484,7 +1469,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F23">
@@ -1494,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="I23">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1506,7 +1491,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L23">
@@ -1516,7 +1501,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1536,7 +1521,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F24">
@@ -1546,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="I24">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1558,7 +1543,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L24">
@@ -1568,7 +1553,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1588,7 +1573,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F25">
@@ -1598,14 +1583,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L25">
@@ -1615,7 +1600,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1635,7 +1620,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F26">
@@ -1645,14 +1630,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L26">
@@ -1662,7 +1647,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1682,7 +1667,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F27">
@@ -1692,19 +1677,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I27">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L27">
@@ -1714,7 +1699,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1734,7 +1719,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F28">
@@ -1744,29 +1729,29 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>112</v>
+        <v>-1</v>
       </c>
       <c r="I28">
-        <v>190</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
         <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>NA w inferred l inferred</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1786,7 +1771,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F29">
@@ -1796,19 +1781,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I29">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L29">
@@ -1818,7 +1803,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1838,7 +1823,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F30">
@@ -1848,19 +1833,19 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="I30">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L30">
@@ -1870,7 +1855,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1890,7 +1875,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F31">
@@ -1900,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I31">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1912,7 +1897,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L31">
@@ -1922,7 +1907,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1942,7 +1927,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F32">
@@ -1952,19 +1937,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>444</v>
+        <v>22</v>
       </c>
       <c r="I32">
-        <v>639</v>
+        <v>6</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>MEDSE-3</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L32">
@@ -1974,7 +1959,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1994,7 +1979,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F33">
@@ -2004,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2016,17 +2001,22 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L33">
         <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2046,7 +2036,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F34">
@@ -2059,31 +2049,21 @@
         <v>24</v>
       </c>
       <c r="I34">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L34">
         <v>0</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2103,7 +2083,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F35">
@@ -2113,34 +2093,24 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I35">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L35">
         <v>0</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2160,7 +2130,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F36">
@@ -2170,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2187,7 +2157,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2207,7 +2177,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F37">
@@ -2217,19 +2187,14 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I37">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L37">
@@ -2239,7 +2204,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2254,7 +2219,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2269,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2291,7 +2256,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2306,12 +2271,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F39">
@@ -2321,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>430</v>
+        <v>28</v>
       </c>
       <c r="I39">
-        <v>587</v>
+        <v>13</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2333,7 +2298,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MEDFI-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L39">
@@ -2343,7 +2308,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2358,12 +2323,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F40">
@@ -2373,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="I40">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2385,7 +2350,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L40">
@@ -2395,7 +2360,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2410,12 +2375,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F41">
@@ -2425,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="I41">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2437,7 +2402,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L41">
@@ -2447,7 +2412,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2462,12 +2427,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F42">
@@ -2477,14 +2442,19 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="I42">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L42">
@@ -2494,7 +2464,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2509,12 +2479,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F43">
@@ -2524,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="I43">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2536,7 +2506,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L43">
@@ -2546,7 +2516,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2561,12 +2531,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F44">
@@ -2576,19 +2546,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="I44">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L44">
@@ -2598,7 +2568,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2613,12 +2583,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F45">
@@ -2628,10 +2598,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="I45">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2640,7 +2610,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L45">
@@ -2650,7 +2620,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2665,12 +2635,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F46">
@@ -2680,10 +2650,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="I46">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2692,7 +2662,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L46">
@@ -2702,7 +2672,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2717,12 +2687,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F47">
@@ -2732,19 +2702,19 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L47">
@@ -2754,7 +2724,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2769,12 +2739,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F48">
@@ -2784,19 +2754,19 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="I48">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L48">
@@ -2806,7 +2776,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2821,12 +2791,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F49">
@@ -2836,19 +2806,14 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="I49">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L49">
@@ -2858,7 +2823,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2873,7 +2838,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2888,19 +2853,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I50">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2910,7 +2870,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2925,7 +2885,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2940,14 +2900,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="I51">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2962,7 +2922,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2977,7 +2937,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2992,14 +2952,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="I52">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3014,7 +2974,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3029,7 +2989,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3044,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I53">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3066,7 +3026,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3081,7 +3041,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3096,19 +3056,19 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I54">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L54">
@@ -3118,7 +3078,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3133,7 +3093,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3148,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="I55">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3170,7 +3130,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3185,7 +3145,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3200,14 +3160,19 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="I56">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L56">
@@ -3217,7 +3182,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3232,7 +3197,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3247,10 +3212,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I57">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3269,7 +3234,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3284,7 +3249,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3299,19 +3264,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="I58">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>MEDFI-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L58">
@@ -3321,7 +3286,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3336,12 +3301,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F59">
@@ -3351,29 +3316,29 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I59">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L59">
         <v>0</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3388,12 +3353,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F60">
@@ -3403,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I60">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3415,7 +3380,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>FROSQ-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L60">
@@ -3425,7 +3390,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3440,12 +3405,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F61">
@@ -3455,19 +3420,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="I61">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L61">
@@ -3477,7 +3437,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3492,12 +3452,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F62">
@@ -3507,14 +3467,19 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>231</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L62">
@@ -3524,7 +3489,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3539,12 +3504,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F63">
@@ -3554,14 +3519,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>805</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L63">
@@ -3571,7 +3541,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3586,12 +3556,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F64">
@@ -3601,14 +3571,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>125</v>
+        <v>428</v>
       </c>
       <c r="I64">
-        <v>-1</v>
+        <v>506</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L64">
@@ -3618,7 +3593,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3633,12 +3608,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F65">
@@ -3648,14 +3623,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>129</v>
+        <v>481</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>734</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L65">
@@ -3665,7 +3645,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3680,12 +3660,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F66">
@@ -3695,14 +3675,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>131</v>
+        <v>371</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>308</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L66">
@@ -3712,7 +3697,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3742,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="I67">
         <v>-1</v>
@@ -3759,7 +3744,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3789,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="I68">
         <v>-1</v>
@@ -3806,7 +3791,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3826,7 +3811,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F69">
@@ -3836,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="I69">
         <v>-1</v>
@@ -3853,7 +3838,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3873,7 +3858,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F70">
@@ -3883,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I70">
         <v>-1</v>
@@ -3900,7 +3885,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3920,7 +3905,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F71">
@@ -3930,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="I71">
         <v>-1</v>
@@ -3947,7 +3932,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3967,7 +3952,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F72">
@@ -3977,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="I72">
         <v>-1</v>
@@ -3994,7 +3979,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4014,7 +3999,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ILLECOI</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F73">
@@ -4024,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="I73">
         <v>-1</v>
@@ -4041,7 +4026,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4061,7 +4046,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F74">
@@ -4071,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="I74">
         <v>-1</v>
@@ -4088,7 +4073,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4108,7 +4093,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F75">
@@ -4118,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="I75">
         <v>-1</v>
@@ -4135,7 +4120,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4155,7 +4140,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F76">
@@ -4165,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="I76">
         <v>-1</v>
@@ -4182,7 +4167,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4202,7 +4187,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F77">
@@ -4212,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="I77">
         <v>-1</v>
@@ -4229,7 +4214,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4249,7 +4234,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F78">
@@ -4259,7 +4244,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="I78">
         <v>-1</v>
@@ -4276,7 +4261,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4296,7 +4281,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F79">
@@ -4306,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="I79">
         <v>-1</v>
@@ -4323,7 +4308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4343,7 +4328,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F80">
@@ -4353,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="I80">
         <v>-1</v>
@@ -4370,7 +4355,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4390,7 +4375,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F81">
@@ -4400,14 +4385,14 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="I81">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L81">
@@ -4417,7 +4402,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4437,7 +4422,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F82">
@@ -4447,14 +4432,14 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I82">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L82">
@@ -4464,7 +4449,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4484,7 +4469,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F83">
@@ -4494,14 +4479,14 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="I83">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L83">
@@ -4511,7 +4496,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4531,7 +4516,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F84">
@@ -4541,19 +4526,14 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L84">
@@ -4563,7 +4543,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4583,7 +4563,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F85">
@@ -4593,19 +4573,14 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="I85">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L85">
@@ -4615,7 +4590,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4635,7 +4610,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F86">
@@ -4645,19 +4620,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L86">
@@ -4667,7 +4637,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4687,7 +4657,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F87">
@@ -4697,34 +4667,24 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L87">
         <v>0</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4744,7 +4704,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F88">
@@ -4754,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>319</v>
+        <v>126</v>
       </c>
       <c r="I88">
         <v>-1</v>
@@ -4771,7 +4731,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4801,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="I89">
         <v>-1</v>
@@ -4818,7 +4778,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4848,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I90">
         <v>-1</v>
@@ -4865,7 +4825,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4895,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="I91">
         <v>-1</v>
@@ -4912,7 +4872,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4932,7 +4892,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F92">
@@ -4942,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="I92">
         <v>-1</v>
@@ -4959,7 +4919,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4979,7 +4939,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="F93">
@@ -4989,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="I93">
         <v>-1</v>
@@ -5006,7 +4966,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5026,7 +4986,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F94">
@@ -5036,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="I94">
         <v>-1</v>
@@ -5053,7 +5013,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5073,7 +5033,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F95">
@@ -5083,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="I95">
         <v>-1</v>
@@ -5100,7 +5060,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5120,7 +5080,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F96">
@@ -5130,19 +5090,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I96">
-        <v>123</v>
+        <v>-1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L96">
@@ -5152,7 +5107,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5172,7 +5127,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F97">
@@ -5182,10 +5137,10 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="I97">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5194,7 +5149,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L97">
@@ -5204,7 +5159,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5224,7 +5179,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F98">
@@ -5234,10 +5189,10 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="I98">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -5246,7 +5201,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L98">
@@ -5256,7 +5211,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5276,7 +5231,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F99">
@@ -5286,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="I99">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -5298,7 +5253,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L99">
@@ -5308,7 +5263,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5328,7 +5283,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F100">
@@ -5338,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="I100">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -5350,7 +5305,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L100">
@@ -5360,7 +5315,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5380,7 +5335,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F101">
@@ -5390,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="I101">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -5402,7 +5357,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L101">
@@ -5412,7 +5367,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5432,7 +5387,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F102">
@@ -5442,14 +5397,19 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="I102">
-        <v>-1</v>
+        <v>105</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L102">
@@ -5459,7 +5419,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5479,7 +5439,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F103">
@@ -5489,14 +5449,19 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>27</v>
+        <v>438</v>
       </c>
       <c r="I103">
-        <v>-1</v>
+        <v>575</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L103">
@@ -5506,7 +5471,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5526,7 +5491,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F104">
@@ -5536,14 +5501,19 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>22</v>
+        <v>442</v>
       </c>
       <c r="I104">
-        <v>-1</v>
+        <v>545</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L104">
@@ -5553,7 +5523,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5568,12 +5538,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F105">
@@ -5583,14 +5553,19 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I105">
-        <v>-1</v>
+        <v>75</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L105">
@@ -5600,7 +5575,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5615,12 +5590,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F106">
@@ -5630,14 +5605,19 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I106">
-        <v>-1</v>
+        <v>151</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L106">
@@ -5647,7 +5627,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5662,12 +5642,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F107">
@@ -5677,14 +5657,19 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I107">
-        <v>-1</v>
+        <v>244</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L107">
@@ -5694,7 +5679,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5709,12 +5694,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F108">
@@ -5724,14 +5709,19 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I108">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L108">
@@ -5741,7 +5731,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5756,12 +5746,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F109">
@@ -5771,14 +5761,19 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I109">
-        <v>-1</v>
+        <v>94</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L109">
@@ -5788,7 +5783,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5803,12 +5798,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F110">
@@ -5818,14 +5813,19 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I110">
-        <v>-1</v>
+        <v>214</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L110">
@@ -5835,7 +5835,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5850,12 +5850,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F111">
@@ -5865,24 +5865,34 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="I111">
-        <v>-1</v>
+        <v>157</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
       <c r="L111">
         <v>0</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5897,12 +5907,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F112">
@@ -5912,14 +5922,19 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I112">
-        <v>-1</v>
+        <v>88</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L112">
@@ -5929,7 +5944,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5944,12 +5959,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F113">
@@ -5959,14 +5974,19 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="I113">
-        <v>-1</v>
+        <v>133</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L113">
@@ -5976,7 +5996,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5991,12 +6011,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F114">
@@ -6006,14 +6026,19 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="I114">
-        <v>-1</v>
+        <v>114</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L114">
@@ -6023,7 +6048,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6038,12 +6063,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F115">
@@ -6053,14 +6078,19 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I115">
-        <v>-1</v>
+        <v>113</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L115">
@@ -6070,7 +6100,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6085,12 +6115,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F116">
@@ -6100,14 +6130,19 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I116">
-        <v>-1</v>
+        <v>53</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L116">
@@ -6117,7 +6152,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6132,12 +6167,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F117">
@@ -6147,14 +6182,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I117">
-        <v>-1</v>
+        <v>129</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L117">
@@ -6164,7 +6204,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6179,12 +6219,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F118">
@@ -6194,14 +6234,19 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I118">
-        <v>-1</v>
+        <v>152</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L118">
@@ -6211,7 +6256,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6226,12 +6271,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F119">
@@ -6241,14 +6286,19 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I119">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L119">
@@ -6258,7 +6308,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6273,12 +6323,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F120">
@@ -6288,14 +6338,19 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I120">
-        <v>-1</v>
+        <v>68</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L120">
@@ -6305,7 +6360,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6320,12 +6375,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F121">
@@ -6335,14 +6390,19 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I121">
-        <v>-1</v>
+        <v>109</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L121">
@@ -6352,7 +6412,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6367,12 +6427,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F122">
@@ -6382,14 +6442,19 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I122">
-        <v>-1</v>
+        <v>150</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L122">
@@ -6399,7 +6464,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6419,7 +6484,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F123">
@@ -6429,14 +6494,19 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="I123">
-        <v>-1</v>
+        <v>140</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L123">
@@ -6446,7 +6516,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6466,7 +6536,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F124">
@@ -6476,14 +6546,19 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I124">
-        <v>-1</v>
+        <v>92</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L124">
@@ -6493,7 +6568,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6513,7 +6588,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F125">
@@ -6523,14 +6598,19 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="I125">
-        <v>-1</v>
+        <v>211</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L125">
@@ -6540,7 +6620,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6560,7 +6640,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F126">
@@ -6570,14 +6650,19 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I126">
-        <v>-1</v>
+        <v>96</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L126">
@@ -6587,7 +6672,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6607,7 +6692,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F127">
@@ -6617,14 +6702,19 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I127">
-        <v>-1</v>
+        <v>124</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L127">
@@ -6634,7 +6724,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6654,7 +6744,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F128">
@@ -6664,14 +6754,19 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I128">
-        <v>-1</v>
+        <v>249</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>SOSEF-3</t>
         </is>
       </c>
       <c r="L128">
@@ -6681,7 +6776,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6701,7 +6796,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F129">
@@ -6711,14 +6806,19 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I129">
-        <v>-1</v>
+        <v>89</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L129">
@@ -6728,7 +6828,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6748,7 +6848,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F130">
@@ -6758,14 +6858,19 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="I130">
-        <v>-1</v>
+        <v>200</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L130">
@@ -6775,7 +6880,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6795,7 +6900,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F131">
@@ -6805,14 +6910,19 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I131">
-        <v>-1</v>
+        <v>148</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L131">
@@ -6822,7 +6932,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6842,7 +6952,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F132">
@@ -6852,14 +6962,19 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I132">
-        <v>-1</v>
+        <v>159</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L132">
@@ -6869,7 +6984,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6889,7 +7004,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F133">
@@ -6899,14 +7014,19 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="I133">
-        <v>-1</v>
+        <v>96</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L133">
@@ -6916,7 +7036,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6936,7 +7056,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F134">
@@ -6946,14 +7066,19 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I134">
-        <v>-1</v>
+        <v>135</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L134">
@@ -6963,7 +7088,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6983,7 +7108,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F135">
@@ -6993,14 +7118,19 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I135">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L135">
@@ -7010,7 +7140,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7030,7 +7160,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F136">
@@ -7040,14 +7170,19 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L136">
@@ -7057,7 +7192,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7077,7 +7212,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F137">
@@ -7087,14 +7222,19 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I137">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L137">
@@ -7104,7 +7244,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7124,7 +7264,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F138">
@@ -7134,14 +7274,19 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L138">
@@ -7151,7 +7296,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7171,7 +7316,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F139">
@@ -7181,14 +7326,19 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I139">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L139">
@@ -7198,7 +7348,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7218,7 +7368,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F140">
@@ -7228,14 +7378,19 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I140">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L140">
@@ -7245,7 +7400,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7265,7 +7420,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F141">
@@ -7275,14 +7430,19 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L141">
@@ -7292,7 +7452,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7312,7 +7472,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F142">
@@ -7322,14 +7482,19 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I142">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L142">
@@ -7339,7 +7504,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7359,7 +7524,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F143">
@@ -7369,14 +7534,19 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I143">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L143">
@@ -7386,7 +7556,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7406,7 +7576,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F144">
@@ -7416,14 +7586,19 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I144">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L144">
@@ -7433,7 +7608,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7453,7 +7628,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F145">
@@ -7463,14 +7638,19 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I145">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L145">
@@ -7480,7 +7660,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7500,7 +7680,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F146">
@@ -7510,14 +7690,19 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I146">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L146">
@@ -7527,7 +7712,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7547,7 +7732,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F147">
@@ -7557,14 +7742,19 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I147">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L147">
@@ -7574,7 +7764,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7594,7 +7784,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F148">
@@ -7604,14 +7794,19 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I148">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L148">
@@ -7621,7 +7816,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7641,7 +7836,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F149">
@@ -7651,14 +7846,19 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I149">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L149">
@@ -7668,7 +7868,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7688,7 +7888,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F150">
@@ -7698,14 +7898,19 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L150">
@@ -7715,7 +7920,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7735,7 +7940,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F151">
@@ -7745,14 +7950,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I151">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L151">
@@ -7762,7 +7972,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7782,7 +7992,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F152">
@@ -7792,14 +8002,19 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I152">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L152">
@@ -7809,7 +8024,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7829,27 +8044,3282 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>17</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>18</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>24</v>
+      </c>
+      <c r="I155">
+        <v>7</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>31</v>
+      </c>
+      <c r="I156">
+        <v>16</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>30</v>
+      </c>
+      <c r="I157">
+        <v>16</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>30</v>
+      </c>
+      <c r="I158">
+        <v>15</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
+      </c>
+      <c r="I159">
+        <v>7</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>21</v>
+      </c>
+      <c r="I160">
+        <v>6</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>24</v>
+      </c>
+      <c r="I161">
+        <v>7</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>24</v>
+      </c>
+      <c r="I162">
+        <v>7</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>31</v>
+      </c>
+      <c r="I164">
+        <v>17</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>23</v>
+      </c>
+      <c r="I165">
+        <v>8</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>23</v>
+      </c>
+      <c r="I166">
+        <v>7</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>29</v>
+      </c>
+      <c r="I167">
+        <v>13</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>34</v>
+      </c>
+      <c r="I168">
+        <v>18</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>22</v>
+      </c>
+      <c r="I169">
+        <v>7</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>23</v>
+      </c>
+      <c r="I170">
+        <v>8</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>22</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>24</v>
+      </c>
+      <c r="I172">
+        <v>8</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>22</v>
+      </c>
+      <c r="I173">
+        <v>6</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>19</v>
+      </c>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>22</v>
+      </c>
+      <c r="I175">
+        <v>6</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>17</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>21</v>
+      </c>
+      <c r="I177">
+        <v>6</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>19</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>22</v>
+      </c>
+      <c r="I179">
+        <v>14</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>23</v>
+      </c>
+      <c r="I180">
+        <v>14</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>108</v>
+      </c>
+      <c r="I181">
+        <v>-1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>32</v>
+      </c>
+      <c r="I182">
+        <v>15</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>32</v>
+      </c>
+      <c r="I183">
+        <v>15</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
           <t>LIOCDEP</t>
         </is>
       </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>20</v>
-      </c>
-      <c r="I153">
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>24</v>
+      </c>
+      <c r="I184">
         <v>-1</v>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="L153">
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>26</v>
+      </c>
+      <c r="I185">
+        <v>-1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>25</v>
+      </c>
+      <c r="I186">
+        <v>-1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>33</v>
+      </c>
+      <c r="I187">
+        <v>-1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>27</v>
+      </c>
+      <c r="I188">
+        <v>-1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>29</v>
+      </c>
+      <c r="I189">
+        <v>-1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>30</v>
+      </c>
+      <c r="I190">
+        <v>-1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>24</v>
+      </c>
+      <c r="I191">
+        <v>-1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>29</v>
+      </c>
+      <c r="I192">
+        <v>-1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>25</v>
+      </c>
+      <c r="I193">
+        <v>-1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>24</v>
+      </c>
+      <c r="I194">
+        <v>-1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>22</v>
+      </c>
+      <c r="I195">
+        <v>-1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>33</v>
+      </c>
+      <c r="I196">
+        <v>-1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>28</v>
+      </c>
+      <c r="I197">
+        <v>-1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>26</v>
+      </c>
+      <c r="I198">
+        <v>-1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>26</v>
+      </c>
+      <c r="I199">
+        <v>-1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>36</v>
+      </c>
+      <c r="I200">
+        <v>-1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>26</v>
+      </c>
+      <c r="I201">
+        <v>-1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>26</v>
+      </c>
+      <c r="I202">
+        <v>-1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>24</v>
+      </c>
+      <c r="I203">
+        <v>-1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>30</v>
+      </c>
+      <c r="I204">
+        <v>-1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>27</v>
+      </c>
+      <c r="I205">
+        <v>-1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>23</v>
+      </c>
+      <c r="I206">
+        <v>-1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>22</v>
+      </c>
+      <c r="I207">
+        <v>-1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>26</v>
+      </c>
+      <c r="I208">
+        <v>-1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>21</v>
+      </c>
+      <c r="I209">
+        <v>-1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>26</v>
+      </c>
+      <c r="I210">
+        <v>-1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>27</v>
+      </c>
+      <c r="I211">
+        <v>-1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>23</v>
+      </c>
+      <c r="I212">
+        <v>-1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>25</v>
+      </c>
+      <c r="I213">
+        <v>-1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>31</v>
+      </c>
+      <c r="I214">
+        <v>-1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>24</v>
+      </c>
+      <c r="I215">
+        <v>-1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>25</v>
+      </c>
+      <c r="I216">
+        <v>-1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>33</v>
+      </c>
+      <c r="I217">
+        <v>-1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>23</v>
+      </c>
+      <c r="I218">
+        <v>-1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L218">
         <v>0</v>
       </c>
     </row>

--- a/OnBoard/output/trust/bio/Bio_Trust_38.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_38.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q218"/>
+  <dimension ref="A1:Q221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F184">
@@ -9631,18 +9631,28 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I184">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L184">
         <v>0</v>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -9668,7 +9678,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F185">
@@ -9678,10 +9688,10 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I185">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -9695,6 +9705,11 @@
       </c>
       <c r="L185">
         <v>0</v>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -9720,7 +9735,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F186">
@@ -9730,10 +9745,10 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I186">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -9747,6 +9762,11 @@
       </c>
       <c r="L186">
         <v>0</v>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -9782,19 +9802,14 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I187">
         <v>-1</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L187">
@@ -9834,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I188">
         <v>-1</v>
@@ -9846,7 +9861,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L188">
@@ -9886,14 +9901,19 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I189">
         <v>-1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L189">
@@ -9933,14 +9953,19 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I190">
         <v>-1</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L190">
@@ -9980,14 +10005,19 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I191">
         <v>-1</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L191">
@@ -10074,19 +10104,14 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I193">
         <v>-1</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L193">
@@ -10133,12 +10158,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L194">
@@ -10178,19 +10198,14 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I195">
         <v>-1</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L195">
@@ -10230,14 +10245,19 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I196">
         <v>-1</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L196">
@@ -10277,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I197">
         <v>-1</v>
@@ -10329,14 +10349,19 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I198">
         <v>-1</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L198">
@@ -10376,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -10423,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -10435,7 +10460,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L200">
@@ -10529,12 +10554,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L202">
@@ -10574,14 +10594,19 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I203">
         <v>-1</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L203">
@@ -10621,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I204">
         <v>-1</v>
@@ -10668,14 +10693,19 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I205">
         <v>-1</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L205">
@@ -10715,19 +10745,14 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I206">
         <v>-1</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L206">
@@ -10767,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I207">
         <v>-1</v>
@@ -10814,19 +10839,14 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I208">
         <v>-1</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L208">
@@ -10866,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I209">
         <v>-1</v>
@@ -10878,7 +10898,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L209">
@@ -10918,19 +10938,14 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I210">
         <v>-1</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L210">
@@ -10970,14 +10985,19 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I211">
         <v>-1</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L211">
@@ -11017,14 +11037,19 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I212">
         <v>-1</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L212">
@@ -11064,14 +11089,19 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I213">
         <v>-1</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L213">
@@ -11111,19 +11141,14 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I214">
         <v>-1</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L214">
@@ -11163,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I215">
         <v>-1</v>
@@ -11217,12 +11242,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L216">
@@ -11262,14 +11282,19 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I217">
         <v>-1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L217">
@@ -11309,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I218">
         <v>-1</v>
@@ -11320,6 +11345,152 @@
         </is>
       </c>
       <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>25</v>
+      </c>
+      <c r="I219">
+        <v>-1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>33</v>
+      </c>
+      <c r="I220">
+        <v>-1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>23</v>
+      </c>
+      <c r="I221">
+        <v>-1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L221">
         <v>0</v>
       </c>
     </row>
